--- a/data/pca/factorExposure/factorExposure_2014-09-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-09-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.001073216405887742</v>
+        <v>0.0180772779023941</v>
       </c>
       <c r="C2">
-        <v>-0.1150476761812991</v>
+        <v>0.07072616546611783</v>
       </c>
       <c r="D2">
-        <v>0.00372646109644039</v>
+        <v>0.03281686259224653</v>
       </c>
       <c r="E2">
-        <v>-0.2301276304278582</v>
+        <v>0.0551261017187233</v>
       </c>
       <c r="F2">
-        <v>-0.02607211582591941</v>
+        <v>0.1504754423148379</v>
       </c>
       <c r="G2">
-        <v>-0.07298241285779421</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.01215523139193957</v>
+      </c>
+      <c r="H2">
+        <v>-0.06010842850808801</v>
+      </c>
+      <c r="I2">
+        <v>0.0196319968755087</v>
+      </c>
+      <c r="J2">
+        <v>0.02044295199969744</v>
+      </c>
+      <c r="K2">
+        <v>-0.1927106403508904</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.01304803954504656</v>
+        <v>0.01769250349050741</v>
       </c>
       <c r="C4">
-        <v>-0.1698551120128517</v>
+        <v>0.1445520285002047</v>
       </c>
       <c r="D4">
-        <v>0.01998328847677792</v>
+        <v>0.06496582053500284</v>
       </c>
       <c r="E4">
-        <v>-0.05933466007963042</v>
+        <v>-0.02651691078888349</v>
       </c>
       <c r="F4">
-        <v>0.07864578654400048</v>
+        <v>0.06521713801964771</v>
       </c>
       <c r="G4">
-        <v>-0.008541731231292501</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.01126197959955809</v>
+      </c>
+      <c r="H4">
+        <v>-0.08793597355406164</v>
+      </c>
+      <c r="I4">
+        <v>0.1003289749399505</v>
+      </c>
+      <c r="J4">
+        <v>0.05628987603368063</v>
+      </c>
+      <c r="K4">
+        <v>-0.1594011552111758</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.0252242605818471</v>
+        <v>0.03781664417577762</v>
       </c>
       <c r="C6">
-        <v>-0.0801256907744923</v>
+        <v>0.08721697815392297</v>
       </c>
       <c r="D6">
-        <v>0.05170869586422474</v>
+        <v>0.03039417775122388</v>
       </c>
       <c r="E6">
-        <v>-0.06931460461143603</v>
+        <v>0.04523120755142868</v>
       </c>
       <c r="F6">
-        <v>0.02397530443081212</v>
+        <v>0.02846571013913973</v>
       </c>
       <c r="G6">
-        <v>0.01057847730381697</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.03886675210545579</v>
+      </c>
+      <c r="H6">
+        <v>-0.02716379332062289</v>
+      </c>
+      <c r="I6">
+        <v>0.001918783869323795</v>
+      </c>
+      <c r="J6">
+        <v>-0.0895593685270758</v>
+      </c>
+      <c r="K6">
+        <v>-0.07404626979580199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>0.002865198908600044</v>
+        <v>0.01796261741863708</v>
       </c>
       <c r="C7">
-        <v>-0.06691226669594851</v>
+        <v>0.07337782835253329</v>
       </c>
       <c r="D7">
-        <v>0.03327462392255816</v>
+        <v>0.03017868933009283</v>
       </c>
       <c r="E7">
-        <v>-0.02071289532842032</v>
+        <v>-0.01667306625859426</v>
       </c>
       <c r="F7">
-        <v>0.04124249132395986</v>
+        <v>-0.002884351451388607</v>
       </c>
       <c r="G7">
-        <v>0.02050350559108713</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.03476436662823083</v>
+      </c>
+      <c r="H7">
+        <v>-0.09673948724732527</v>
+      </c>
+      <c r="I7">
+        <v>0.02643683493074703</v>
+      </c>
+      <c r="J7">
+        <v>-3.604558938810393e-05</v>
+      </c>
+      <c r="K7">
+        <v>-0.03602239736743122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>0.01261525339006334</v>
+        <v>-0.0001608875102467253</v>
       </c>
       <c r="C8">
-        <v>-0.07577958543544314</v>
+        <v>0.06162667011429082</v>
       </c>
       <c r="D8">
-        <v>0.0285688533878192</v>
+        <v>0.04443551097868437</v>
       </c>
       <c r="E8">
-        <v>-0.07617073418669894</v>
+        <v>0.00897401080161306</v>
       </c>
       <c r="F8">
-        <v>0.03057388502630152</v>
+        <v>0.06068730297387383</v>
       </c>
       <c r="G8">
-        <v>-0.01974894909469819</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.02001454614222384</v>
+      </c>
+      <c r="H8">
+        <v>-0.06143194780857521</v>
+      </c>
+      <c r="I8">
+        <v>0.01457091560891565</v>
+      </c>
+      <c r="J8">
+        <v>-0.003179522545737408</v>
+      </c>
+      <c r="K8">
+        <v>0.00557427907496403</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.004482463984680154</v>
+        <v>0.01347251172951513</v>
       </c>
       <c r="C9">
-        <v>-0.1240036891130552</v>
+        <v>0.1025136523370333</v>
       </c>
       <c r="D9">
-        <v>0.03570000484571832</v>
+        <v>0.04526177048873588</v>
       </c>
       <c r="E9">
-        <v>-0.02407102818352264</v>
+        <v>-0.004644459586468836</v>
       </c>
       <c r="F9">
-        <v>0.02861110764668026</v>
+        <v>0.03084968779066285</v>
       </c>
       <c r="G9">
-        <v>0.03668925665309484</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.001799355097938608</v>
+      </c>
+      <c r="H9">
+        <v>-0.08819121646348435</v>
+      </c>
+      <c r="I9">
+        <v>0.06660671443646192</v>
+      </c>
+      <c r="J9">
+        <v>0.01416039565503744</v>
+      </c>
+      <c r="K9">
+        <v>-0.07446995690108663</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.2785947198002227</v>
+        <v>0.2472451319233342</v>
       </c>
       <c r="C10">
-        <v>0.07575992537465964</v>
+        <v>-0.08931813593871592</v>
       </c>
       <c r="D10">
-        <v>-0.02082048875165206</v>
+        <v>-0.00579846983585198</v>
       </c>
       <c r="E10">
-        <v>0.03856489859382538</v>
+        <v>0.01169106819653345</v>
       </c>
       <c r="F10">
-        <v>-0.004789200313008897</v>
+        <v>-0.000689612907448005</v>
       </c>
       <c r="G10">
-        <v>0.02647612640814987</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02430084815101636</v>
+      </c>
+      <c r="H10">
+        <v>-0.03332626143107221</v>
+      </c>
+      <c r="I10">
+        <v>0.01537593598571529</v>
+      </c>
+      <c r="J10">
+        <v>0.185174179857706</v>
+      </c>
+      <c r="K10">
+        <v>0.1005389060849687</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.002949827764884817</v>
+        <v>0.01646505754871903</v>
       </c>
       <c r="C11">
-        <v>-0.06765449327609528</v>
+        <v>0.08253416955385975</v>
       </c>
       <c r="D11">
-        <v>0.02566734102862553</v>
+        <v>0.03906794182714417</v>
       </c>
       <c r="E11">
-        <v>0.01884478091038823</v>
+        <v>-0.003358049884379102</v>
       </c>
       <c r="F11">
-        <v>0.01506369365654358</v>
+        <v>-0.01488261168723593</v>
       </c>
       <c r="G11">
-        <v>0.04201186186698481</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.00792192578599054</v>
+      </c>
+      <c r="H11">
+        <v>-0.02816852614442193</v>
+      </c>
+      <c r="I11">
+        <v>0.01962200242889078</v>
+      </c>
+      <c r="J11">
+        <v>-0.02166451090698023</v>
+      </c>
+      <c r="K11">
+        <v>0.01457241242996539</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.001443752545137902</v>
+        <v>0.01607084135466326</v>
       </c>
       <c r="C12">
-        <v>-0.04833836315783198</v>
+        <v>0.05524605831890397</v>
       </c>
       <c r="D12">
-        <v>0.02863267100909061</v>
+        <v>0.02376383964875421</v>
       </c>
       <c r="E12">
-        <v>0.009787963309444399</v>
+        <v>0.01845069931675893</v>
       </c>
       <c r="F12">
-        <v>-0.0115164092560808</v>
+        <v>-0.01494311933764605</v>
       </c>
       <c r="G12">
-        <v>0.06268073075842689</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.02612581820651804</v>
+      </c>
+      <c r="H12">
+        <v>-0.0260660157231097</v>
+      </c>
+      <c r="I12">
+        <v>0.01478883561359002</v>
+      </c>
+      <c r="J12">
+        <v>-0.01546478031271863</v>
+      </c>
+      <c r="K12">
+        <v>0.0008345855783081071</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.01179699104411805</v>
+        <v>0.005403505993765855</v>
       </c>
       <c r="C13">
-        <v>-0.1228380120698088</v>
+        <v>0.1204741727845458</v>
       </c>
       <c r="D13">
-        <v>0.05374400878731746</v>
+        <v>0.04099748969407625</v>
       </c>
       <c r="E13">
-        <v>-0.0567598925964232</v>
+        <v>0.1199464918622891</v>
       </c>
       <c r="F13">
-        <v>-0.0218440514056348</v>
+        <v>0.1029254400510348</v>
       </c>
       <c r="G13">
-        <v>0.1720823585516683</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.1236121521255789</v>
+      </c>
+      <c r="H13">
+        <v>-0.1415886345342784</v>
+      </c>
+      <c r="I13">
+        <v>-0.1606454361563315</v>
+      </c>
+      <c r="J13">
+        <v>0.1548407079883706</v>
+      </c>
+      <c r="K13">
+        <v>0.1890109185799871</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.007327872418894397</v>
+        <v>0.02006756498096986</v>
       </c>
       <c r="C14">
-        <v>-0.07267167868143727</v>
+        <v>0.07562340554371556</v>
       </c>
       <c r="D14">
-        <v>0.03068133141534864</v>
+        <v>0.05023184616981136</v>
       </c>
       <c r="E14">
-        <v>-0.03434018366008308</v>
+        <v>0.04772580731852998</v>
       </c>
       <c r="F14">
-        <v>-0.009251026578017092</v>
+        <v>-0.00355541052026592</v>
       </c>
       <c r="G14">
-        <v>0.0656639771255501</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.07671900590975128</v>
+      </c>
+      <c r="H14">
+        <v>-0.2063008348725346</v>
+      </c>
+      <c r="I14">
+        <v>-0.0005734918629925678</v>
+      </c>
+      <c r="J14">
+        <v>-0.02628279623929394</v>
+      </c>
+      <c r="K14">
+        <v>0.1174583525415646</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.003471175712885684</v>
+        <v>0.003581589787729165</v>
       </c>
       <c r="C15">
-        <v>-0.1013194794589105</v>
+        <v>0.08317765171699096</v>
       </c>
       <c r="D15">
-        <v>0.04440986598746736</v>
+        <v>0.03653420316357456</v>
       </c>
       <c r="E15">
-        <v>-0.05087453117275265</v>
+        <v>-0.001010430856496304</v>
       </c>
       <c r="F15">
-        <v>0.01913290842383429</v>
+        <v>0.02436040033222337</v>
       </c>
       <c r="G15">
-        <v>0.03621909426534064</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>-0.02342225760841087</v>
+      </c>
+      <c r="H15">
+        <v>-0.09469297022478278</v>
+      </c>
+      <c r="I15">
+        <v>0.02890561386476407</v>
+      </c>
+      <c r="J15">
+        <v>-0.0194430026393652</v>
+      </c>
+      <c r="K15">
+        <v>0.0692634852359425</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.007178473486811381</v>
+        <v>0.01520672632997566</v>
       </c>
       <c r="C16">
-        <v>-0.05785152135005537</v>
+        <v>0.06199558952368496</v>
       </c>
       <c r="D16">
-        <v>0.01917484893972631</v>
+        <v>0.02701924682797974</v>
       </c>
       <c r="E16">
-        <v>0.01171175819698</v>
+        <v>-0.0003067957279539188</v>
       </c>
       <c r="F16">
-        <v>-0.003720858947374284</v>
+        <v>-0.009136450950077701</v>
       </c>
       <c r="G16">
-        <v>0.03240463564257453</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.008380406090254099</v>
+      </c>
+      <c r="H16">
+        <v>-0.02071801918388242</v>
+      </c>
+      <c r="I16">
+        <v>0.01740403352364223</v>
+      </c>
+      <c r="J16">
+        <v>-0.01583848845475817</v>
+      </c>
+      <c r="K16">
+        <v>-0.002529651124123144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.008869932510891635</v>
+        <v>0.01433496157213874</v>
       </c>
       <c r="C20">
-        <v>-0.09044190549400508</v>
+        <v>0.08641347637350845</v>
       </c>
       <c r="D20">
-        <v>0.02600695860013688</v>
+        <v>0.02785477440386851</v>
       </c>
       <c r="E20">
-        <v>0.01494117737738903</v>
+        <v>-0.02082870548223244</v>
       </c>
       <c r="F20">
-        <v>0.03674794041470363</v>
+        <v>-0.009650487372486926</v>
       </c>
       <c r="G20">
-        <v>0.09555404306988879</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.03647442100923541</v>
+      </c>
+      <c r="H20">
+        <v>-0.07330662827961588</v>
+      </c>
+      <c r="I20">
+        <v>0.01957565260841116</v>
+      </c>
+      <c r="J20">
+        <v>-0.01523911105617372</v>
+      </c>
+      <c r="K20">
+        <v>-0.01170642771006756</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>0.01302509430241806</v>
+        <v>0.01203948522130697</v>
       </c>
       <c r="C21">
-        <v>-0.09861637138735711</v>
+        <v>0.07217335750957342</v>
       </c>
       <c r="D21">
-        <v>-0.03421340406621187</v>
+        <v>0.02084101430215435</v>
       </c>
       <c r="E21">
-        <v>-0.05757850749039658</v>
+        <v>0.09641936307997484</v>
       </c>
       <c r="F21">
-        <v>-0.02408088173630701</v>
+        <v>0.01943091782533177</v>
       </c>
       <c r="G21">
-        <v>0.05175746983668138</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.02935266057237943</v>
+      </c>
+      <c r="H21">
+        <v>-0.1434920568050433</v>
+      </c>
+      <c r="I21">
+        <v>-0.0371668700079076</v>
+      </c>
+      <c r="J21">
+        <v>0.001973236181255516</v>
+      </c>
+      <c r="K21">
+        <v>0.0327067084310423</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.03591190270010075</v>
+        <v>0.005759375452409371</v>
       </c>
       <c r="C22">
-        <v>-0.2222652412661776</v>
+        <v>0.1780664237125729</v>
       </c>
       <c r="D22">
-        <v>-0.06846663304664892</v>
+        <v>0.01875985107759251</v>
       </c>
       <c r="E22">
-        <v>-0.2780971222950555</v>
+        <v>-0.09874660654979879</v>
       </c>
       <c r="F22">
-        <v>0.2360656191866558</v>
+        <v>0.5266342816200963</v>
       </c>
       <c r="G22">
-        <v>-0.1502005642569617</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>-0.00678979989048267</v>
+      </c>
+      <c r="H22">
+        <v>0.2982427212142342</v>
+      </c>
+      <c r="I22">
+        <v>-0.0588464413590402</v>
+      </c>
+      <c r="J22">
+        <v>-0.01313056492887223</v>
+      </c>
+      <c r="K22">
+        <v>0.1906145633059591</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.03443271584777688</v>
+        <v>0.01102291977520928</v>
       </c>
       <c r="C23">
-        <v>-0.2225076167048112</v>
+        <v>0.1818231103058216</v>
       </c>
       <c r="D23">
-        <v>-0.06810538351135759</v>
+        <v>0.01871095299385798</v>
       </c>
       <c r="E23">
-        <v>-0.2737914431911281</v>
+        <v>-0.09392702691094636</v>
       </c>
       <c r="F23">
-        <v>0.2304866098333005</v>
+        <v>0.5105575955879819</v>
       </c>
       <c r="G23">
-        <v>-0.1487203062291295</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>-0.007516813411578692</v>
+      </c>
+      <c r="H23">
+        <v>0.2788801043444617</v>
+      </c>
+      <c r="I23">
+        <v>-0.04593241739415953</v>
+      </c>
+      <c r="J23">
+        <v>-0.01537941385367043</v>
+      </c>
+      <c r="K23">
+        <v>0.179715476023544</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.0007658419558677851</v>
+        <v>0.01601730907666426</v>
       </c>
       <c r="C24">
-        <v>-0.0540054113630632</v>
+        <v>0.0654259352555529</v>
       </c>
       <c r="D24">
-        <v>0.03971404419348389</v>
+        <v>0.04010934805030224</v>
       </c>
       <c r="E24">
-        <v>0.01074157963885368</v>
+        <v>-0.002333497556596428</v>
       </c>
       <c r="F24">
-        <v>0.01035841098237502</v>
+        <v>-0.009886665242326349</v>
       </c>
       <c r="G24">
-        <v>0.05577162867760053</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.02370252041935331</v>
+      </c>
+      <c r="H24">
+        <v>-0.03884573584903327</v>
+      </c>
+      <c r="I24">
+        <v>0.01947712025712897</v>
+      </c>
+      <c r="J24">
+        <v>-0.01818106456122394</v>
+      </c>
+      <c r="K24">
+        <v>0.003633299487112456</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.002081048859326464</v>
+        <v>0.02026131689570253</v>
       </c>
       <c r="C25">
-        <v>-0.0630330783712284</v>
+        <v>0.06936235093559656</v>
       </c>
       <c r="D25">
-        <v>0.01851409160163599</v>
+        <v>0.03178170790964119</v>
       </c>
       <c r="E25">
-        <v>0.01755632686921414</v>
+        <v>-0.004745947584290862</v>
       </c>
       <c r="F25">
-        <v>0.008272578705408972</v>
+        <v>-0.009347170331363612</v>
       </c>
       <c r="G25">
-        <v>0.05234221821340614</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.01745076980596755</v>
+      </c>
+      <c r="H25">
+        <v>-0.03370841182534028</v>
+      </c>
+      <c r="I25">
+        <v>0.02086818457506213</v>
+      </c>
+      <c r="J25">
+        <v>-0.004930115484607832</v>
+      </c>
+      <c r="K25">
+        <v>0.01658456917154512</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.0005907805202882773</v>
+        <v>0.0235239393202224</v>
       </c>
       <c r="C26">
-        <v>-0.0574338019221181</v>
+        <v>0.05720453786144397</v>
       </c>
       <c r="D26">
-        <v>0.05431315421549397</v>
+        <v>0.06363677126063876</v>
       </c>
       <c r="E26">
-        <v>-0.01379321156772978</v>
+        <v>-0.002590510757580119</v>
       </c>
       <c r="F26">
-        <v>-0.01878503555438889</v>
+        <v>-0.01864369030818778</v>
       </c>
       <c r="G26">
-        <v>0.03100200682577256</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.00370879361001742</v>
+      </c>
+      <c r="H26">
+        <v>-0.09645377248601324</v>
+      </c>
+      <c r="I26">
+        <v>0.0641531048124588</v>
+      </c>
+      <c r="J26">
+        <v>-0.02672558476551987</v>
+      </c>
+      <c r="K26">
+        <v>-0.1162009016880322</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.3752410467615274</v>
+        <v>0.3156384294391363</v>
       </c>
       <c r="C28">
-        <v>0.08651472627929968</v>
+        <v>-0.1061732350498371</v>
       </c>
       <c r="D28">
-        <v>-0.02224233231323059</v>
+        <v>-0.03103857693584137</v>
       </c>
       <c r="E28">
-        <v>0.07947646212820078</v>
+        <v>0.01146002814402363</v>
       </c>
       <c r="F28">
-        <v>-0.0853123270667865</v>
+        <v>0.04216679060765909</v>
       </c>
       <c r="G28">
-        <v>-0.0402390198353273</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.1257552229535146</v>
+      </c>
+      <c r="H28">
+        <v>-0.05306791545640745</v>
+      </c>
+      <c r="I28">
+        <v>-0.07196105350816109</v>
+      </c>
+      <c r="J28">
+        <v>0.2009281436594584</v>
+      </c>
+      <c r="K28">
+        <v>-0.01849067804063742</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.005816616355338837</v>
+        <v>0.01476545749552931</v>
       </c>
       <c r="C29">
-        <v>-0.07591523261021231</v>
+        <v>0.08260854875339958</v>
       </c>
       <c r="D29">
-        <v>0.04747726711970579</v>
+        <v>0.05508480401690327</v>
       </c>
       <c r="E29">
-        <v>-0.03054099470288062</v>
+        <v>0.05099814854423295</v>
       </c>
       <c r="F29">
-        <v>-0.004136861740192121</v>
+        <v>0.002291128145345451</v>
       </c>
       <c r="G29">
-        <v>0.1044450123651797</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.1175003707725682</v>
+      </c>
+      <c r="H29">
+        <v>-0.2931759209663393</v>
+      </c>
+      <c r="I29">
+        <v>0.001995070256730364</v>
+      </c>
+      <c r="J29">
+        <v>-0.00397875779088085</v>
+      </c>
+      <c r="K29">
+        <v>0.1807077482763027</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.01954334486236975</v>
+        <v>0.02916051529491979</v>
       </c>
       <c r="C30">
-        <v>-0.1724765381245961</v>
+        <v>0.1430301301485898</v>
       </c>
       <c r="D30">
-        <v>0.06135826876548925</v>
+        <v>0.05726322605629867</v>
       </c>
       <c r="E30">
-        <v>-0.03425513349032801</v>
+        <v>-0.01544637131349246</v>
       </c>
       <c r="F30">
-        <v>0.0511388817030391</v>
+        <v>0.06569509971937741</v>
       </c>
       <c r="G30">
-        <v>0.006755297018883177</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.008050284767375343</v>
+      </c>
+      <c r="H30">
+        <v>-0.03684563516399036</v>
+      </c>
+      <c r="I30">
+        <v>0.04069651846048111</v>
+      </c>
+      <c r="J30">
+        <v>-0.03399746419769675</v>
+      </c>
+      <c r="K30">
+        <v>-0.08847293527370501</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>0.001523163171669537</v>
+        <v>0.01473477912867189</v>
       </c>
       <c r="C31">
-        <v>-0.05810085927010717</v>
+        <v>0.08076450825081367</v>
       </c>
       <c r="D31">
-        <v>0.03508533308826692</v>
+        <v>0.04174122923858766</v>
       </c>
       <c r="E31">
-        <v>0.01546534842506449</v>
+        <v>0.003807318695358986</v>
       </c>
       <c r="F31">
-        <v>-0.01677559938679031</v>
+        <v>-0.001571466714316909</v>
       </c>
       <c r="G31">
-        <v>0.02329456558129147</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.02386832902740792</v>
+      </c>
+      <c r="H31">
+        <v>-0.03128728733087595</v>
+      </c>
+      <c r="I31">
+        <v>0.02219108352286113</v>
+      </c>
+      <c r="J31">
+        <v>-0.002481752903199685</v>
+      </c>
+      <c r="K31">
+        <v>0.02922425184276332</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>-0.01811991814952713</v>
+        <v>0.02206837889434511</v>
       </c>
       <c r="C32">
-        <v>-0.08716625462212346</v>
+        <v>0.05224231027103009</v>
       </c>
       <c r="D32">
-        <v>-0.007915880309498172</v>
+        <v>0.02337646318741169</v>
       </c>
       <c r="E32">
-        <v>-0.1581586767332246</v>
+        <v>0.05937974323362018</v>
       </c>
       <c r="F32">
-        <v>0.02806284326964708</v>
+        <v>0.1004282286263802</v>
       </c>
       <c r="G32">
-        <v>0.07283306387868642</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.06681870076035397</v>
+      </c>
+      <c r="H32">
+        <v>-0.1697817447414799</v>
+      </c>
+      <c r="I32">
+        <v>-0.1149597463189711</v>
+      </c>
+      <c r="J32">
+        <v>0.2393962270219319</v>
+      </c>
+      <c r="K32">
+        <v>0.004385597732436157</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.01259888377157542</v>
+        <v>0.01725817004934292</v>
       </c>
       <c r="C33">
-        <v>-0.08961384258044351</v>
+        <v>0.1054591289240175</v>
       </c>
       <c r="D33">
-        <v>0.06366851209976708</v>
+        <v>0.05243877076077638</v>
       </c>
       <c r="E33">
-        <v>-0.01233931187482419</v>
+        <v>-0.003578820565354051</v>
       </c>
       <c r="F33">
-        <v>-0.006987635203608806</v>
+        <v>0.01277787380322235</v>
       </c>
       <c r="G33">
-        <v>0.03254382929223853</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.02236686921931364</v>
+      </c>
+      <c r="H33">
+        <v>-0.05162443134836891</v>
+      </c>
+      <c r="I33">
+        <v>0.02139446331646946</v>
+      </c>
+      <c r="J33">
+        <v>0.0254274798648537</v>
+      </c>
+      <c r="K33">
+        <v>0.00133847015469001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>0.001793405880564948</v>
+        <v>0.01548737588757756</v>
       </c>
       <c r="C34">
-        <v>-0.04566970102834395</v>
+        <v>0.04804347521431974</v>
       </c>
       <c r="D34">
-        <v>0.01950127449551015</v>
+        <v>0.01955387999720479</v>
       </c>
       <c r="E34">
-        <v>-0.002638140292744821</v>
+        <v>0.00676446451061636</v>
       </c>
       <c r="F34">
-        <v>-0.01448106669338362</v>
+        <v>-0.01143398850417485</v>
       </c>
       <c r="G34">
-        <v>0.03545032838102531</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.01586156967596961</v>
+      </c>
+      <c r="H34">
+        <v>-0.007508289767656867</v>
+      </c>
+      <c r="I34">
+        <v>0.02113431480871494</v>
+      </c>
+      <c r="J34">
+        <v>-0.01100402570305037</v>
+      </c>
+      <c r="K34">
+        <v>0.00493258415370051</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.002168783255647499</v>
+        <v>0.01051470948041969</v>
       </c>
       <c r="C35">
-        <v>-0.02386100055812708</v>
+        <v>0.04371141597876296</v>
       </c>
       <c r="D35">
-        <v>0.009465477322820598</v>
+        <v>0.02358262551319581</v>
       </c>
       <c r="E35">
-        <v>-0.008350928290680142</v>
+        <v>0.01278378347093399</v>
       </c>
       <c r="F35">
-        <v>0.0009394267700897422</v>
+        <v>0.005220021196646924</v>
       </c>
       <c r="G35">
-        <v>0.03249479448213501</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>-0.04321353522151713</v>
+      </c>
+      <c r="H35">
+        <v>-0.1486865128060404</v>
+      </c>
+      <c r="I35">
+        <v>0.03309764758161762</v>
+      </c>
+      <c r="J35">
+        <v>0.01767982621348708</v>
+      </c>
+      <c r="K35">
+        <v>0.1602934361605884</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.001745912877291977</v>
+        <v>0.01625367623574305</v>
       </c>
       <c r="C36">
-        <v>-0.0517356406499554</v>
+        <v>0.04874013153812009</v>
       </c>
       <c r="D36">
-        <v>0.04864837108798038</v>
+        <v>0.04918478095393334</v>
       </c>
       <c r="E36">
-        <v>-0.004368273667921618</v>
+        <v>0.002469037835050435</v>
       </c>
       <c r="F36">
-        <v>-0.006130889181466048</v>
+        <v>0.004058712143565784</v>
       </c>
       <c r="G36">
-        <v>0.02006099522026311</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.004645683951002341</v>
+      </c>
+      <c r="H36">
+        <v>-0.07362956644520355</v>
+      </c>
+      <c r="I36">
+        <v>0.01803071973850637</v>
+      </c>
+      <c r="J36">
+        <v>-0.01189447213572479</v>
+      </c>
+      <c r="K36">
+        <v>-0.03932264309996521</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.02678290484301028</v>
+        <v>0.01160141730952124</v>
       </c>
       <c r="C38">
-        <v>-0.05853791013778388</v>
+        <v>0.0608425440441103</v>
       </c>
       <c r="D38">
-        <v>0.05204945928023321</v>
+        <v>0.04354178249364059</v>
       </c>
       <c r="E38">
-        <v>0.006489783994997497</v>
+        <v>-0.0265788696511772</v>
       </c>
       <c r="F38">
-        <v>0.005254488189536819</v>
+        <v>0.01453279089886708</v>
       </c>
       <c r="G38">
-        <v>0.01812868596609719</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.003405129742492037</v>
+      </c>
+      <c r="H38">
+        <v>-0.07999557573453786</v>
+      </c>
+      <c r="I38">
+        <v>-0.03081270893666006</v>
+      </c>
+      <c r="J38">
+        <v>0.0531714549611283</v>
+      </c>
+      <c r="K38">
+        <v>0.03951656509789981</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>0.002426268884794352</v>
+        <v>0.01762464651713046</v>
       </c>
       <c r="C39">
-        <v>-0.1296972731313116</v>
+        <v>0.1285869926828899</v>
       </c>
       <c r="D39">
-        <v>0.04945530520096578</v>
+        <v>0.05821769420196492</v>
       </c>
       <c r="E39">
-        <v>-0.007065988344881496</v>
+        <v>0.01163984903834271</v>
       </c>
       <c r="F39">
-        <v>0.01810557184822997</v>
+        <v>-0.002555102150681452</v>
       </c>
       <c r="G39">
-        <v>0.07972835235966505</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.04030148060914765</v>
+      </c>
+      <c r="H39">
+        <v>-0.05322804589700253</v>
+      </c>
+      <c r="I39">
+        <v>0.0182126708177129</v>
+      </c>
+      <c r="J39">
+        <v>-0.07782262775123049</v>
+      </c>
+      <c r="K39">
+        <v>-0.03150149801646386</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.003172776988043116</v>
+        <v>0.01194567662098349</v>
       </c>
       <c r="C40">
-        <v>-0.02282883396516393</v>
+        <v>0.05574678410250013</v>
       </c>
       <c r="D40">
-        <v>0.02718273416777447</v>
+        <v>0.03888139437284914</v>
       </c>
       <c r="E40">
-        <v>-0.1326606083891634</v>
+        <v>0.03291514717335944</v>
       </c>
       <c r="F40">
-        <v>0.0663736910048599</v>
+        <v>0.0371010122848178</v>
       </c>
       <c r="G40">
-        <v>0.07642116647092702</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.1551177675318299</v>
+      </c>
+      <c r="H40">
+        <v>-0.03865593109372942</v>
+      </c>
+      <c r="I40">
+        <v>0.03798268623668302</v>
+      </c>
+      <c r="J40">
+        <v>0.01729900101226396</v>
+      </c>
+      <c r="K40">
+        <v>0.2641402324098558</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.01301697490924209</v>
+        <v>0.02230235339972778</v>
       </c>
       <c r="C41">
-        <v>-0.02249342529706262</v>
+        <v>0.04787953323732545</v>
       </c>
       <c r="D41">
-        <v>0.005608110617691849</v>
+        <v>0.01785360874286121</v>
       </c>
       <c r="E41">
-        <v>0.01538022296893032</v>
+        <v>0.0004170949797679012</v>
       </c>
       <c r="F41">
-        <v>-0.02889903604043651</v>
+        <v>-0.02326140557690197</v>
       </c>
       <c r="G41">
-        <v>-0.03413042084305183</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.008345189500746262</v>
+      </c>
+      <c r="H41">
+        <v>-0.01987445392879707</v>
+      </c>
+      <c r="I41">
+        <v>-0.003046074229248081</v>
+      </c>
+      <c r="J41">
+        <v>0.0300768433764348</v>
+      </c>
+      <c r="K41">
+        <v>0.05177801069882959</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.003070842140112688</v>
+        <v>0.01842639994383354</v>
       </c>
       <c r="C43">
-        <v>-0.02356166701491633</v>
+        <v>0.04442002151327819</v>
       </c>
       <c r="D43">
-        <v>0.01293289554151819</v>
+        <v>0.03007724208846167</v>
       </c>
       <c r="E43">
-        <v>0.007449625153014342</v>
+        <v>-0.00832619801101242</v>
       </c>
       <c r="F43">
-        <v>0.004349999572027489</v>
+        <v>-0.01171681957925062</v>
       </c>
       <c r="G43">
-        <v>-0.001066604198396089</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.0003154704270268077</v>
+      </c>
+      <c r="H43">
+        <v>-0.03856309632031605</v>
+      </c>
+      <c r="I43">
+        <v>-0.0006994066203145455</v>
+      </c>
+      <c r="J43">
+        <v>0.0009688275595450337</v>
+      </c>
+      <c r="K43">
+        <v>0.03969603747167096</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>-0.02148819077536161</v>
+        <v>0.01519469562332223</v>
       </c>
       <c r="C44">
-        <v>-0.1006691338954893</v>
+        <v>0.09843033872184107</v>
       </c>
       <c r="D44">
-        <v>0.02758176314405823</v>
+        <v>0.05953073569146188</v>
       </c>
       <c r="E44">
-        <v>-0.04015217390446327</v>
+        <v>-0.02750138454695417</v>
       </c>
       <c r="F44">
-        <v>0.05118937840136016</v>
+        <v>0.0617996378396467</v>
       </c>
       <c r="G44">
-        <v>0.05383438543711989</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.04674278210057993</v>
+      </c>
+      <c r="H44">
+        <v>-0.05458203856090837</v>
+      </c>
+      <c r="I44">
+        <v>0.009463266470614996</v>
+      </c>
+      <c r="J44">
+        <v>-0.04498220826276916</v>
+      </c>
+      <c r="K44">
+        <v>-0.0859771832943402</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,148 +2275,232 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>0.00802158596457227</v>
+        <v>0.004202619776125525</v>
       </c>
       <c r="C46">
-        <v>-0.0655806212202073</v>
+        <v>0.06358542121354444</v>
       </c>
       <c r="D46">
-        <v>0.04494986349239801</v>
+        <v>0.03132046513026679</v>
       </c>
       <c r="E46">
-        <v>-0.02721625171511119</v>
+        <v>0.00978787931442403</v>
       </c>
       <c r="F46">
-        <v>0.007714442099919562</v>
+        <v>-0.01070059148800397</v>
       </c>
       <c r="G46">
-        <v>0.05739686025413974</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.03662025243690255</v>
+      </c>
+      <c r="H46">
+        <v>-0.1021614294796409</v>
+      </c>
+      <c r="I46">
+        <v>-0.01741931160685919</v>
+      </c>
+      <c r="J46">
+        <v>-0.00935380677661583</v>
+      </c>
+      <c r="K46">
+        <v>0.0774749302910035</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>-0.004095391950783213</v>
+        <v>0.0222542841884503</v>
       </c>
       <c r="C47">
-        <v>-0.07299262363027915</v>
+        <v>0.0793576079372499</v>
       </c>
       <c r="D47">
-        <v>0.03867225155130583</v>
+        <v>0.04279732136614961</v>
       </c>
       <c r="E47">
-        <v>0.01938237067146862</v>
+        <v>0.009127261270085027</v>
       </c>
       <c r="F47">
-        <v>-0.04241054239136215</v>
+        <v>-0.01816549632938664</v>
       </c>
       <c r="G47">
-        <v>0.04881146176460548</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.008844927342252598</v>
+      </c>
+      <c r="H47">
+        <v>-0.07052492632124867</v>
+      </c>
+      <c r="I47">
+        <v>-0.007142698149481172</v>
+      </c>
+      <c r="J47">
+        <v>0.02553276000961536</v>
+      </c>
+      <c r="K47">
+        <v>0.03069673456763446</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>-0.006067577379380636</v>
+        <v>0.02168083160636761</v>
       </c>
       <c r="C48">
-        <v>-0.05485394567677647</v>
+        <v>0.05053401883940426</v>
       </c>
       <c r="D48">
-        <v>0.0564280754959377</v>
+        <v>0.05558743779105067</v>
       </c>
       <c r="E48">
-        <v>-0.001093278259925942</v>
+        <v>-0.003032385100199892</v>
       </c>
       <c r="F48">
-        <v>-0.005443162273773612</v>
+        <v>-0.004491076588515164</v>
       </c>
       <c r="G48">
-        <v>0.02933882102783147</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.005365744488374226</v>
+      </c>
+      <c r="H48">
+        <v>-0.09438709751757425</v>
+      </c>
+      <c r="I48">
+        <v>0.04672862811586106</v>
+      </c>
+      <c r="J48">
+        <v>-0.0194584043380275</v>
+      </c>
+      <c r="K48">
+        <v>-0.09448078653877261</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.008562143294554578</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.02729682946250607</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.005027109575118674</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>-0.008661098474052709</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>-0.03575344436494912</v>
       </c>
       <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>-0.03277014166212713</v>
+      </c>
+      <c r="H49">
+        <v>0.02022343357145525</v>
+      </c>
+      <c r="I49">
+        <v>0.05303470489628627</v>
+      </c>
+      <c r="J49">
+        <v>-0.03351278066745612</v>
+      </c>
+      <c r="K49">
+        <v>-0.02473004758957116</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>4.798676998597041e-05</v>
+        <v>0.01506122094292943</v>
       </c>
       <c r="C50">
-        <v>-0.06887588186226162</v>
+        <v>0.07976469865833212</v>
       </c>
       <c r="D50">
-        <v>0.03224448417530516</v>
+        <v>0.03264972262776153</v>
       </c>
       <c r="E50">
-        <v>0.00145249556707297</v>
+        <v>-0.004708243883520127</v>
       </c>
       <c r="F50">
-        <v>0.001935421703202144</v>
+        <v>0.005172453403338888</v>
       </c>
       <c r="G50">
-        <v>0.02855111559818171</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.007687552381119406</v>
+      </c>
+      <c r="H50">
+        <v>-0.05233697993028989</v>
+      </c>
+      <c r="I50">
+        <v>0.008951200441576787</v>
+      </c>
+      <c r="J50">
+        <v>0.05037917306148141</v>
+      </c>
+      <c r="K50">
+        <v>0.02014258263074168</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>-0.0008430058366600353</v>
+        <v>-0.006375466330766169</v>
       </c>
       <c r="C51">
-        <v>-0.0792253013849034</v>
+        <v>0.03695063646378156</v>
       </c>
       <c r="D51">
-        <v>0.0096262394704591</v>
+        <v>0.02266754120763713</v>
       </c>
       <c r="E51">
-        <v>-0.04991204548710894</v>
+        <v>0.01108100296780867</v>
       </c>
       <c r="F51">
-        <v>0.04611837073844619</v>
+        <v>0.02835529930563295</v>
       </c>
       <c r="G51">
-        <v>0.02136902269366332</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.02748894191837939</v>
+      </c>
+      <c r="H51">
+        <v>-0.09954679673227476</v>
+      </c>
+      <c r="I51">
+        <v>0.03971930929462445</v>
+      </c>
+      <c r="J51">
+        <v>-0.001683715902243901</v>
+      </c>
+      <c r="K51">
+        <v>-0.1093007553335325</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,102 +2520,162 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>-0.03551550021902763</v>
+        <v>0.05738540882284297</v>
       </c>
       <c r="C53">
-        <v>-0.1329028943477077</v>
+        <v>0.1310530395564047</v>
       </c>
       <c r="D53">
-        <v>0.065680788063378</v>
+        <v>0.05744635277027851</v>
       </c>
       <c r="E53">
-        <v>0.1263846184458501</v>
+        <v>0.01749263001298521</v>
       </c>
       <c r="F53">
-        <v>-0.07673159811811488</v>
+        <v>-0.07286334779846633</v>
       </c>
       <c r="G53">
-        <v>-0.03530180986818104</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.08432246804036844</v>
+      </c>
+      <c r="H53">
+        <v>0.03334187588578153</v>
+      </c>
+      <c r="I53">
+        <v>0.006245803779424858</v>
+      </c>
+      <c r="J53">
+        <v>0.03753190140189891</v>
+      </c>
+      <c r="K53">
+        <v>0.01332461393101825</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>-0.00172543648428038</v>
+        <v>0.01832232390935388</v>
       </c>
       <c r="C54">
-        <v>-0.0619649958667276</v>
+        <v>0.07465820613633546</v>
       </c>
       <c r="D54">
-        <v>0.00890073995623292</v>
+        <v>0.01302677304770505</v>
       </c>
       <c r="E54">
-        <v>0.02751419823303393</v>
+        <v>0.007861954817460411</v>
       </c>
       <c r="F54">
-        <v>0.004593769762992603</v>
+        <v>-0.02222612690910249</v>
       </c>
       <c r="G54">
-        <v>0.01844630588045681</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.01764467145957917</v>
+      </c>
+      <c r="H54">
+        <v>-0.04677283737996878</v>
+      </c>
+      <c r="I54">
+        <v>0.03207548205675999</v>
+      </c>
+      <c r="J54">
+        <v>-0.01678728519538486</v>
+      </c>
+      <c r="K54">
+        <v>0.002899094606246463</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>-0.01734883586975444</v>
+        <v>0.03130878842630461</v>
       </c>
       <c r="C55">
-        <v>-0.08410934573335767</v>
+        <v>0.08351370590027707</v>
       </c>
       <c r="D55">
-        <v>0.06565496435071219</v>
+        <v>0.05472883094748827</v>
       </c>
       <c r="E55">
-        <v>0.05574184083650769</v>
+        <v>0.00664220026909597</v>
       </c>
       <c r="F55">
-        <v>-0.05222759998200875</v>
+        <v>-0.05383143148095316</v>
       </c>
       <c r="G55">
-        <v>0.003748370350637972</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.04011521514997168</v>
+      </c>
+      <c r="H55">
+        <v>0.01913300637615294</v>
+      </c>
+      <c r="I55">
+        <v>0.01364809995953888</v>
+      </c>
+      <c r="J55">
+        <v>-0.009043381606359376</v>
+      </c>
+      <c r="K55">
+        <v>0.004753523969367912</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>-0.01902162592128291</v>
+        <v>0.04446604879079476</v>
       </c>
       <c r="C56">
-        <v>-0.1632255290358878</v>
+        <v>0.1495972558574555</v>
       </c>
       <c r="D56">
-        <v>0.06153031194268806</v>
+        <v>0.08119278143279553</v>
       </c>
       <c r="E56">
-        <v>0.1119894322480482</v>
+        <v>0.0462465427004906</v>
       </c>
       <c r="F56">
-        <v>-0.1094159032450025</v>
+        <v>-0.09533747235705932</v>
       </c>
       <c r="G56">
-        <v>-0.08270181136108445</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.1630244733509924</v>
+      </c>
+      <c r="H56">
+        <v>0.04986330450344763</v>
+      </c>
+      <c r="I56">
+        <v>0.0306249196808319</v>
+      </c>
+      <c r="J56">
+        <v>0.02080154509571266</v>
+      </c>
+      <c r="K56">
+        <v>-0.01220152857706419</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,286 +2695,442 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>-0.02723338107860254</v>
+        <v>0.02129775673241357</v>
       </c>
       <c r="C58">
-        <v>-0.2998306961997312</v>
+        <v>0.1837299616820618</v>
       </c>
       <c r="D58">
-        <v>-0.0404562610899178</v>
+        <v>0.04305568364310387</v>
       </c>
       <c r="E58">
-        <v>-0.1615569037476134</v>
+        <v>-0.04138636828297181</v>
       </c>
       <c r="F58">
-        <v>0.2796798962942604</v>
+        <v>0.3148226364364218</v>
       </c>
       <c r="G58">
-        <v>-0.1695359545082034</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.08342233571857949</v>
+      </c>
+      <c r="H58">
+        <v>-0.06328092394544736</v>
+      </c>
+      <c r="I58">
+        <v>-0.02301457177622242</v>
+      </c>
+      <c r="J58">
+        <v>0.0458927730964919</v>
+      </c>
+      <c r="K58">
+        <v>-0.3674679727324072</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>-0.283801720428542</v>
+        <v>0.2895368203025467</v>
       </c>
       <c r="C59">
-        <v>-0.004102270160417913</v>
+        <v>-0.04456244490147999</v>
       </c>
       <c r="D59">
-        <v>-0.02973571450748231</v>
+        <v>-0.004902120684371298</v>
       </c>
       <c r="E59">
-        <v>-0.0558420915104256</v>
+        <v>0.01698499625919159</v>
       </c>
       <c r="F59">
-        <v>-0.04069532499636071</v>
+        <v>0.04565819192823856</v>
       </c>
       <c r="G59">
-        <v>0.01018917678436053</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.003146214798555648</v>
+      </c>
+      <c r="H59">
+        <v>0.0198193868540156</v>
+      </c>
+      <c r="I59">
+        <v>-0.02483705486988628</v>
+      </c>
+      <c r="J59">
+        <v>0.02280980925635936</v>
+      </c>
+      <c r="K59">
+        <v>0.02688948344531747</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>-0.1030187999589134</v>
+        <v>0.1445614678516542</v>
       </c>
       <c r="C60">
-        <v>-0.1444776396733992</v>
+        <v>0.1513864108281018</v>
       </c>
       <c r="D60">
-        <v>0.07651948492169452</v>
+        <v>0.04899049783313966</v>
       </c>
       <c r="E60">
-        <v>0.0423065864507797</v>
+        <v>0.039704513574172</v>
       </c>
       <c r="F60">
-        <v>-0.1041649355374906</v>
+        <v>-0.1153271643746273</v>
       </c>
       <c r="G60">
-        <v>0.3043343816948977</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.2573895557393021</v>
+      </c>
+      <c r="H60">
+        <v>0.238515100511363</v>
+      </c>
+      <c r="I60">
+        <v>0.001627083103604931</v>
+      </c>
+      <c r="J60">
+        <v>-0.02000353169448847</v>
+      </c>
+      <c r="K60">
+        <v>-0.0340954778896106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>-0.0007165680234121926</v>
+        <v>0.02062344639205116</v>
       </c>
       <c r="C61">
-        <v>-0.08297864740235726</v>
+        <v>0.09629216064453497</v>
       </c>
       <c r="D61">
-        <v>0.05578620136138095</v>
+        <v>0.05430981067183543</v>
       </c>
       <c r="E61">
-        <v>0.02314926850644776</v>
+        <v>0.01133286718349734</v>
       </c>
       <c r="F61">
-        <v>-0.01230654394932424</v>
+        <v>-0.03092789815792579</v>
       </c>
       <c r="G61">
-        <v>0.08119226777369812</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.02478095806919897</v>
+      </c>
+      <c r="H61">
+        <v>-0.05762993221173721</v>
+      </c>
+      <c r="I61">
+        <v>0.03349754613542655</v>
+      </c>
+      <c r="J61">
+        <v>-0.02385528549349174</v>
+      </c>
+      <c r="K61">
+        <v>0.01620331725892283</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.002639455784108512</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.01320051987453722</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>0.00380321156375596</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>-0.00812023905605715</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>0.0145187162035645</v>
       </c>
       <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>-0.0171661283015172</v>
+      </c>
+      <c r="H62">
+        <v>-0.003371036351242278</v>
+      </c>
+      <c r="I62">
+        <v>0.05687299728589541</v>
+      </c>
+      <c r="J62">
+        <v>0.02849154996661949</v>
+      </c>
+      <c r="K62">
+        <v>0.009675864365299059</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>0.005208488181675731</v>
+        <v>0.02664638313060902</v>
       </c>
       <c r="C63">
-        <v>-0.06011869948335351</v>
+        <v>0.06703109340862538</v>
       </c>
       <c r="D63">
-        <v>0.04299672962568927</v>
+        <v>0.06126045494914204</v>
       </c>
       <c r="E63">
-        <v>0.02784354477092513</v>
+        <v>0.008667623819143112</v>
       </c>
       <c r="F63">
-        <v>0.002580105754368897</v>
+        <v>-0.01923316754435861</v>
       </c>
       <c r="G63">
-        <v>0.02772768291256999</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.001208960967626433</v>
+      </c>
+      <c r="H63">
+        <v>-0.05680968433528868</v>
+      </c>
+      <c r="I63">
+        <v>0.04054367004645634</v>
+      </c>
+      <c r="J63">
+        <v>-0.004900577737789619</v>
+      </c>
+      <c r="K63">
+        <v>0.01544871922754897</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>0.002543729336944147</v>
+        <v>0.01438775786501103</v>
       </c>
       <c r="C64">
-        <v>-0.0791393567151253</v>
+        <v>0.09084706223645934</v>
       </c>
       <c r="D64">
-        <v>0.06749568208007636</v>
+        <v>0.0342345649257698</v>
       </c>
       <c r="E64">
-        <v>-0.008142492468079587</v>
+        <v>-0.02631337997646481</v>
       </c>
       <c r="F64">
-        <v>0.02196469679530902</v>
+        <v>0.02470923334620196</v>
       </c>
       <c r="G64">
-        <v>0.0563683599589903</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.06824939898812528</v>
+      </c>
+      <c r="H64">
+        <v>-0.05431061474813996</v>
+      </c>
+      <c r="I64">
+        <v>0.03310767879511921</v>
+      </c>
+      <c r="J64">
+        <v>-0.04153218401520192</v>
+      </c>
+      <c r="K64">
+        <v>0.0168688357558113</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>-0.00996172979538911</v>
+        <v>0.03001452635880036</v>
       </c>
       <c r="C65">
-        <v>-0.08383056095804049</v>
+        <v>0.096124694977236</v>
       </c>
       <c r="D65">
-        <v>0.0288052958412111</v>
+        <v>0.02226548838087047</v>
       </c>
       <c r="E65">
-        <v>-0.03386721087073253</v>
+        <v>-0.01189594132694387</v>
       </c>
       <c r="F65">
-        <v>0.02380890579619504</v>
+        <v>0.0009400807722554872</v>
       </c>
       <c r="G65">
-        <v>0.02838950129490216</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.08902416142416943</v>
+      </c>
+      <c r="H65">
+        <v>-0.004508767710289251</v>
+      </c>
+      <c r="I65">
+        <v>-0.00703720087469605</v>
+      </c>
+      <c r="J65">
+        <v>-0.09224617127936167</v>
+      </c>
+      <c r="K65">
+        <v>-0.08549904085778942</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>0.002637652087482303</v>
+        <v>0.01440904202210121</v>
       </c>
       <c r="C66">
-        <v>-0.1720826219945627</v>
+        <v>0.166170732011634</v>
       </c>
       <c r="D66">
-        <v>0.03059073551607333</v>
+        <v>0.04859149256459656</v>
       </c>
       <c r="E66">
-        <v>-0.04639885577711492</v>
+        <v>0.01778492100491769</v>
       </c>
       <c r="F66">
-        <v>0.009410521258301691</v>
+        <v>0.009692600891437742</v>
       </c>
       <c r="G66">
-        <v>0.1019405359334732</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.02584711310029217</v>
+      </c>
+      <c r="H66">
+        <v>-0.06462572072944028</v>
+      </c>
+      <c r="I66">
+        <v>0.02603320133950652</v>
+      </c>
+      <c r="J66">
+        <v>-0.05123838895354457</v>
+      </c>
+      <c r="K66">
+        <v>-0.02511872078605806</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>-0.02531867915199491</v>
+        <v>0.02006545846969183</v>
       </c>
       <c r="C67">
-        <v>-0.03477519743532907</v>
+        <v>0.05058803808141773</v>
       </c>
       <c r="D67">
-        <v>0.06821429034467101</v>
+        <v>0.04525605325021466</v>
       </c>
       <c r="E67">
-        <v>0.03737255931219931</v>
+        <v>-0.02289704215300867</v>
       </c>
       <c r="F67">
-        <v>-0.006727188716076572</v>
+        <v>-0.02178272461986585</v>
       </c>
       <c r="G67">
-        <v>0.02862627335442289</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.02135598747572927</v>
+      </c>
+      <c r="H67">
+        <v>-0.05643949767480928</v>
+      </c>
+      <c r="I67">
+        <v>-0.0431535139256461</v>
+      </c>
+      <c r="J67">
+        <v>0.04186409829040275</v>
+      </c>
+      <c r="K67">
+        <v>0.05162844909661804</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>-0.293408469998605</v>
+        <v>0.2959217546093328</v>
       </c>
       <c r="C68">
-        <v>0.0229132893825425</v>
+        <v>-0.06793414568079668</v>
       </c>
       <c r="D68">
-        <v>-0.02011904427917595</v>
+        <v>-0.02356515744123275</v>
       </c>
       <c r="E68">
-        <v>-0.02974285877276493</v>
+        <v>0.006809287732693055</v>
       </c>
       <c r="F68">
-        <v>0.005947213805979368</v>
+        <v>0.03635705898643147</v>
       </c>
       <c r="G68">
-        <v>-0.005032548706653978</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.02171060015122787</v>
+      </c>
+      <c r="H68">
+        <v>-0.02428805857436708</v>
+      </c>
+      <c r="I68">
+        <v>0.04771050564127795</v>
+      </c>
+      <c r="J68">
+        <v>0.05720957093541715</v>
+      </c>
+      <c r="K68">
+        <v>0.0006258769066040705</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>-0.01611229899008962</v>
+        <v>0.008102466356037822</v>
       </c>
       <c r="C69">
-        <v>-0.05319639870600656</v>
+        <v>0.04845050621576488</v>
       </c>
       <c r="D69">
-        <v>0.04717696428215489</v>
+        <v>0.02248613549731346</v>
       </c>
       <c r="E69">
-        <v>0.02201867543273331</v>
+        <v>0.001879431140346427</v>
       </c>
       <c r="F69">
-        <v>-0.0004676772506425088</v>
+        <v>-0.01305104628540104</v>
       </c>
       <c r="G69">
-        <v>0.02562756307095645</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.02822303014066727</v>
+      </c>
+      <c r="H69">
+        <v>-0.03906104446332103</v>
+      </c>
+      <c r="I69">
+        <v>-0.000645257685965854</v>
+      </c>
+      <c r="J69">
+        <v>0.02686404056756833</v>
+      </c>
+      <c r="K69">
+        <v>0.00265340478214319</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,585 +3150,897 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>-0.2848766757430494</v>
+        <v>0.2774077572854526</v>
       </c>
       <c r="C71">
-        <v>0.03489916709311406</v>
+        <v>-0.07300138145943552</v>
       </c>
       <c r="D71">
-        <v>-0.02785994429202714</v>
+        <v>-0.02161038514227036</v>
       </c>
       <c r="E71">
-        <v>-0.01636695305543783</v>
+        <v>-0.01375560669010828</v>
       </c>
       <c r="F71">
-        <v>0.02508019976159733</v>
+        <v>0.05968369689091093</v>
       </c>
       <c r="G71">
-        <v>0.0002110441970625816</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.02644672573852454</v>
+      </c>
+      <c r="H71">
+        <v>-0.0515274900559592</v>
+      </c>
+      <c r="I71">
+        <v>-0.003296791997141532</v>
+      </c>
+      <c r="J71">
+        <v>0.1227335138753335</v>
+      </c>
+      <c r="K71">
+        <v>-0.03433994994296882</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>-0.02518070370932385</v>
+        <v>0.05470555174493064</v>
       </c>
       <c r="C72">
-        <v>-0.1567218421870755</v>
+        <v>0.141931388909047</v>
       </c>
       <c r="D72">
-        <v>0.06478005230440945</v>
+        <v>0.04824405483266934</v>
       </c>
       <c r="E72">
-        <v>0.0007191545496925284</v>
+        <v>0.01235052836946594</v>
       </c>
       <c r="F72">
-        <v>0.07941700350732846</v>
+        <v>-0.04106682978073306</v>
       </c>
       <c r="G72">
-        <v>0.118126040128321</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.01847504877597628</v>
+      </c>
+      <c r="H72">
+        <v>-0.0335499845523563</v>
+      </c>
+      <c r="I72">
+        <v>0.03045052326938909</v>
+      </c>
+      <c r="J72">
+        <v>-0.1219505280115713</v>
+      </c>
+      <c r="K72">
+        <v>-0.07261702840304622</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>-0.06794140411958907</v>
+        <v>0.150270856904042</v>
       </c>
       <c r="C73">
-        <v>-0.113810263119274</v>
+        <v>0.1952292002203134</v>
       </c>
       <c r="D73">
-        <v>0.1151282157210374</v>
+        <v>0.08573935229776673</v>
       </c>
       <c r="E73">
-        <v>0.1362433929218607</v>
+        <v>0.01317891383528144</v>
       </c>
       <c r="F73">
-        <v>-0.1153505520000699</v>
+        <v>-0.2412069488602181</v>
       </c>
       <c r="G73">
-        <v>0.4226867489962471</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.3864624599475848</v>
+      </c>
+      <c r="H73">
+        <v>0.2968108045564625</v>
+      </c>
+      <c r="I73">
+        <v>-0.08386071036272778</v>
+      </c>
+      <c r="J73">
+        <v>0.07052567213686732</v>
+      </c>
+      <c r="K73">
+        <v>-0.07639097468251893</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>-0.008874552163888733</v>
+        <v>0.0384139085400938</v>
       </c>
       <c r="C74">
-        <v>-0.0879924549088494</v>
+        <v>0.09970878908480822</v>
       </c>
       <c r="D74">
-        <v>0.07185699563558794</v>
+        <v>0.04846222647664324</v>
       </c>
       <c r="E74">
-        <v>0.07570475255348073</v>
+        <v>-0.007438951590813138</v>
       </c>
       <c r="F74">
-        <v>-0.06077007416383687</v>
+        <v>-0.04031065670388173</v>
       </c>
       <c r="G74">
-        <v>-0.02239574499874854</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.04742466472061222</v>
+      </c>
+      <c r="H74">
+        <v>0.00930780444306497</v>
+      </c>
+      <c r="I74">
+        <v>0.0483303066673332</v>
+      </c>
+      <c r="J74">
+        <v>0.01448134362595017</v>
+      </c>
+      <c r="K74">
+        <v>-0.02821210588611847</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>-0.0489805997844999</v>
+        <v>0.06341756979420968</v>
       </c>
       <c r="C75">
-        <v>-0.1478048440320409</v>
+        <v>0.1659757182822914</v>
       </c>
       <c r="D75">
-        <v>0.08668300801111083</v>
+        <v>0.08579172994979409</v>
       </c>
       <c r="E75">
-        <v>0.1757515657994413</v>
+        <v>-0.03829833741270171</v>
       </c>
       <c r="F75">
-        <v>-0.09566533159085777</v>
+        <v>-0.1179485290971094</v>
       </c>
       <c r="G75">
-        <v>-0.1629206765892411</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.2300738818442424</v>
+      </c>
+      <c r="H75">
+        <v>0.03899804476747299</v>
+      </c>
+      <c r="I75">
+        <v>-0.0004868348863866636</v>
+      </c>
+      <c r="J75">
+        <v>0.1225811796214372</v>
+      </c>
+      <c r="K75">
+        <v>0.1013708679252299</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>-0.01536948337268107</v>
+        <v>0.04103131678853848</v>
       </c>
       <c r="C76">
-        <v>-0.1055970986862527</v>
+        <v>0.1212511825530618</v>
       </c>
       <c r="D76">
-        <v>0.06686530492221258</v>
+        <v>0.07403989045252711</v>
       </c>
       <c r="E76">
-        <v>0.08323810108800088</v>
+        <v>0.01428966116059264</v>
       </c>
       <c r="F76">
-        <v>-0.08394790620250459</v>
+        <v>-0.08775592916004031</v>
       </c>
       <c r="G76">
-        <v>-0.03137416057451981</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.08159551532827232</v>
+      </c>
+      <c r="H76">
+        <v>0.02379075902947419</v>
+      </c>
+      <c r="I76">
+        <v>0.06117827830377338</v>
+      </c>
+      <c r="J76">
+        <v>-0.007336621561265018</v>
+      </c>
+      <c r="K76">
+        <v>0.03430596920303687</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>-0.07116137894056913</v>
+        <v>0.05271482700249663</v>
       </c>
       <c r="C77">
-        <v>-0.3243762990918507</v>
+        <v>0.4037502565638247</v>
       </c>
       <c r="D77">
-        <v>-0.8499727743322247</v>
+        <v>-0.8976297986720868</v>
       </c>
       <c r="E77">
-        <v>0.3121762142776324</v>
+        <v>-0.03400084754393465</v>
       </c>
       <c r="F77">
-        <v>-0.03459994506216552</v>
+        <v>-0.08903729999882194</v>
       </c>
       <c r="G77">
-        <v>0.06667566459548215</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.033049186116419</v>
+      </c>
+      <c r="H77">
+        <v>-0.05169880052164087</v>
+      </c>
+      <c r="I77">
+        <v>0.03512150781273365</v>
+      </c>
+      <c r="J77">
+        <v>0.01395817950032397</v>
+      </c>
+      <c r="K77">
+        <v>0.003214536905284696</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>-0.02383614480639043</v>
+        <v>0.03436576198512798</v>
       </c>
       <c r="C78">
-        <v>-0.1459083407999511</v>
+        <v>0.1145381699447751</v>
       </c>
       <c r="D78">
-        <v>0.1030096900548432</v>
+        <v>0.09677522364724349</v>
       </c>
       <c r="E78">
-        <v>-0.06853978206861611</v>
+        <v>0.04663141960895732</v>
       </c>
       <c r="F78">
-        <v>-0.09149383582745106</v>
+        <v>-0.003540428905290692</v>
       </c>
       <c r="G78">
-        <v>-0.05526126196096514</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.1193381357618726</v>
+      </c>
+      <c r="H78">
+        <v>-0.06214067098863416</v>
+      </c>
+      <c r="I78">
+        <v>-0.01812693989138664</v>
+      </c>
+      <c r="J78">
+        <v>-0.07666923518139751</v>
+      </c>
+      <c r="K78">
+        <v>-0.4373541742312945</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>-0.02444501168379388</v>
+        <v>0.05454244413358877</v>
       </c>
       <c r="C79">
-        <v>-0.1769411872112565</v>
+        <v>0.1432381987215635</v>
       </c>
       <c r="D79">
-        <v>0.1164767120346566</v>
+        <v>0.07229295885049404</v>
       </c>
       <c r="E79">
-        <v>0.1118722322135697</v>
+        <v>0.01833302902120425</v>
       </c>
       <c r="F79">
-        <v>-0.1458361710316405</v>
+        <v>-0.06829319811832364</v>
       </c>
       <c r="G79">
-        <v>-0.1975875799773272</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>0.2376770016603309</v>
+      </c>
+      <c r="H79">
+        <v>0.009093773928948955</v>
+      </c>
+      <c r="I79">
+        <v>0.02591217368857617</v>
+      </c>
+      <c r="J79">
+        <v>0.08776042737325364</v>
+      </c>
+      <c r="K79">
+        <v>-0.03845286929842115</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>-0.00861162094555073</v>
+        <v>0.02021978812787812</v>
       </c>
       <c r="C80">
-        <v>-0.03990702829601266</v>
+        <v>0.04767995221699501</v>
       </c>
       <c r="D80">
-        <v>0.05563952048741483</v>
+        <v>0.03726837546140199</v>
       </c>
       <c r="E80">
-        <v>-0.01479995280917595</v>
+        <v>0.0468758331429961</v>
       </c>
       <c r="F80">
-        <v>-0.03807807664969367</v>
+        <v>0.02895671348234742</v>
       </c>
       <c r="G80">
-        <v>-0.008632513523741029</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.06750433225058031</v>
+      </c>
+      <c r="H80">
+        <v>0.02908747924785871</v>
+      </c>
+      <c r="I80">
+        <v>-0.03196301824421391</v>
+      </c>
+      <c r="J80">
+        <v>0.03205685327679585</v>
+      </c>
+      <c r="K80">
+        <v>0.06815266943007739</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>-0.006245091522537582</v>
+        <v>0.01703729716850476</v>
       </c>
       <c r="C81">
-        <v>-0.07137985530859846</v>
+        <v>0.09849774415960603</v>
       </c>
       <c r="D81">
-        <v>0.07810254699306349</v>
+        <v>0.05540143453559683</v>
       </c>
       <c r="E81">
-        <v>0.09017104185629353</v>
+        <v>0.01406241809176029</v>
       </c>
       <c r="F81">
-        <v>-0.08979997218623197</v>
+        <v>-0.05170039934207283</v>
       </c>
       <c r="G81">
-        <v>-0.06136686849077043</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.1148198831583774</v>
+      </c>
+      <c r="H81">
+        <v>-0.03879995510669236</v>
+      </c>
+      <c r="I81">
+        <v>0.02152054791333431</v>
+      </c>
+      <c r="J81">
+        <v>0.05792527660477232</v>
+      </c>
+      <c r="K81">
+        <v>0.02498815041908182</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>-0.02214930120465095</v>
+        <v>0.04424226502933825</v>
       </c>
       <c r="C82">
-        <v>-0.08059399711865509</v>
+        <v>0.1003235073621258</v>
       </c>
       <c r="D82">
-        <v>0.07399282552435368</v>
+        <v>0.06713449178170888</v>
       </c>
       <c r="E82">
-        <v>0.1040897163815759</v>
+        <v>0.0196945945484643</v>
       </c>
       <c r="F82">
-        <v>-0.07766899510293009</v>
+        <v>-0.07770283271412787</v>
       </c>
       <c r="G82">
-        <v>-0.02177747772595505</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>0.09263968853581687</v>
+      </c>
+      <c r="H82">
+        <v>-0.0006569502842342192</v>
+      </c>
+      <c r="I82">
+        <v>0.02117298391347411</v>
+      </c>
+      <c r="J82">
+        <v>0.01416555415756498</v>
+      </c>
+      <c r="K82">
+        <v>0.01023676390972392</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>-0.0003999817041905455</v>
+        <v>-0.001716564713944043</v>
       </c>
       <c r="C83">
-        <v>-0.02560989975564082</v>
+        <v>-0.02421273904802039</v>
       </c>
       <c r="D83">
-        <v>-0.1900075673719363</v>
+        <v>-0.06852568080291858</v>
       </c>
       <c r="E83">
-        <v>-0.571185625991099</v>
+        <v>0.9539490771895309</v>
       </c>
       <c r="F83">
-        <v>-0.7232309972954589</v>
+        <v>0.1220041148632141</v>
       </c>
       <c r="G83">
-        <v>-0.02204203669524758</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.03486822819385718</v>
+      </c>
+      <c r="H83">
+        <v>0.09696298660886028</v>
+      </c>
+      <c r="I83">
+        <v>0.02062810997902518</v>
+      </c>
+      <c r="J83">
+        <v>-0.06528441785977963</v>
+      </c>
+      <c r="K83">
+        <v>-0.0129834750260304</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>0.005052219046307111</v>
+        <v>-0.001028760135270888</v>
       </c>
       <c r="C84">
-        <v>-0.07338863607973596</v>
+        <v>0.04543456555827502</v>
       </c>
       <c r="D84">
-        <v>0.04425417965666286</v>
+        <v>0.06575648328823015</v>
       </c>
       <c r="E84">
-        <v>-0.06605136871512078</v>
+        <v>-0.02396041137792784</v>
       </c>
       <c r="F84">
-        <v>0.1415271653557172</v>
+        <v>0.09225678958932058</v>
       </c>
       <c r="G84">
-        <v>-0.06845172896597941</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>0.04590826410767852</v>
+      </c>
+      <c r="H84">
+        <v>-0.08649669744719803</v>
+      </c>
+      <c r="I84">
+        <v>0.08217963319904639</v>
+      </c>
+      <c r="J84">
+        <v>-0.1079883809107666</v>
+      </c>
+      <c r="K84">
+        <v>0.07441271743522164</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>-0.01140752273363283</v>
+        <v>0.02789168332826227</v>
       </c>
       <c r="C85">
-        <v>-0.1283934129625021</v>
+        <v>0.1164212519749885</v>
       </c>
       <c r="D85">
-        <v>0.08652500911227394</v>
+        <v>0.08111014687684849</v>
       </c>
       <c r="E85">
-        <v>0.1180506014301386</v>
+        <v>0.01822216280372265</v>
       </c>
       <c r="F85">
-        <v>-0.1352585762272986</v>
+        <v>-0.1310075893479195</v>
       </c>
       <c r="G85">
-        <v>-0.1352478035602341</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.2177316245458435</v>
+      </c>
+      <c r="H85">
+        <v>0.05560971249060254</v>
+      </c>
+      <c r="I85">
+        <v>0.09039686811296345</v>
+      </c>
+      <c r="J85">
+        <v>0.09363691309837426</v>
+      </c>
+      <c r="K85">
+        <v>0.05785847871944755</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>-0.01690935272869355</v>
+        <v>0.01544824817760945</v>
       </c>
       <c r="C86">
-        <v>-0.07768712348019269</v>
+        <v>0.083550386152073</v>
       </c>
       <c r="D86">
-        <v>-0.02910729088452526</v>
+        <v>0.0307066739567644</v>
       </c>
       <c r="E86">
-        <v>-0.01594888821627484</v>
+        <v>-0.004835362508060404</v>
       </c>
       <c r="F86">
-        <v>0.06771221744643115</v>
+        <v>0.08332321942655045</v>
       </c>
       <c r="G86">
-        <v>0.05102135901815984</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.04904562421986854</v>
+      </c>
+      <c r="H86">
+        <v>-0.006712163139816936</v>
+      </c>
+      <c r="I86">
+        <v>-0.1351309117458651</v>
+      </c>
+      <c r="J86">
+        <v>0.1077382478944269</v>
+      </c>
+      <c r="K86">
+        <v>-0.1770559019777869</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>-0.02733383906703202</v>
+        <v>0.0249996536869673</v>
       </c>
       <c r="C87">
-        <v>-0.1519043818713661</v>
+        <v>0.1177573744404711</v>
       </c>
       <c r="D87">
-        <v>0.02388138294931969</v>
+        <v>0.01670469291406803</v>
       </c>
       <c r="E87">
-        <v>-0.09890566247626567</v>
+        <v>-0.01334117400426298</v>
       </c>
       <c r="F87">
-        <v>0.06095432987504416</v>
+        <v>0.06555362196634124</v>
       </c>
       <c r="G87">
-        <v>-0.0186359711447662</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.003094943672942073</v>
+      </c>
+      <c r="H87">
+        <v>-0.04630536789730937</v>
+      </c>
+      <c r="I87">
+        <v>0.08652308904153147</v>
+      </c>
+      <c r="J87">
+        <v>-0.06347960666261385</v>
+      </c>
+      <c r="K87">
+        <v>-0.07283719964210467</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>-0.005882591006911061</v>
+        <v>0.03810940354700814</v>
       </c>
       <c r="C88">
-        <v>-0.03873629113609432</v>
+        <v>0.0637928214345681</v>
       </c>
       <c r="D88">
-        <v>0.05304083846815846</v>
+        <v>0.04174591574189166</v>
       </c>
       <c r="E88">
-        <v>0.05366030292063059</v>
+        <v>-0.006245566468494571</v>
       </c>
       <c r="F88">
-        <v>-0.02478917281225618</v>
+        <v>-0.02339389854750658</v>
       </c>
       <c r="G88">
-        <v>0.01312984442173956</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.02776650950806252</v>
+      </c>
+      <c r="H88">
+        <v>0.0007513880570692712</v>
+      </c>
+      <c r="I88">
+        <v>0.01550809129672799</v>
+      </c>
+      <c r="J88">
+        <v>0.02057548781282723</v>
+      </c>
+      <c r="K88">
+        <v>0.07998344908155057</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>-0.3906772222066491</v>
+        <v>0.3910780892274395</v>
       </c>
       <c r="C89">
-        <v>0.07825817287012282</v>
+        <v>-0.114788199388081</v>
       </c>
       <c r="D89">
-        <v>0.1086121189948835</v>
+        <v>-0.03327294392734209</v>
       </c>
       <c r="E89">
-        <v>-0.08201059404410249</v>
+        <v>-0.04277764339462216</v>
       </c>
       <c r="F89">
-        <v>0.07526869352180433</v>
+        <v>0.05885987681156767</v>
       </c>
       <c r="G89">
-        <v>-0.07033618114652419</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.04116916190537909</v>
+      </c>
+      <c r="H89">
+        <v>-0.0220985924474557</v>
+      </c>
+      <c r="I89">
+        <v>0.1656514922167907</v>
+      </c>
+      <c r="J89">
+        <v>-0.7189752542203964</v>
+      </c>
+      <c r="K89">
+        <v>0.004834903561168401</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>-0.3064425934694445</v>
+        <v>0.3164971824588073</v>
       </c>
       <c r="C90">
-        <v>0.02512441867391519</v>
+        <v>-0.0738105295326389</v>
       </c>
       <c r="D90">
-        <v>-0.01547435947802569</v>
+        <v>-0.01999214944710034</v>
       </c>
       <c r="E90">
-        <v>-0.07275840222650626</v>
+        <v>0.007421903780629348</v>
       </c>
       <c r="F90">
-        <v>-0.02907975864042716</v>
+        <v>0.0390071262745114</v>
       </c>
       <c r="G90">
-        <v>0.02296147675983705</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.008806659511912358</v>
+      </c>
+      <c r="H90">
+        <v>-0.02281062528907137</v>
+      </c>
+      <c r="I90">
+        <v>-0.01207918181921556</v>
+      </c>
+      <c r="J90">
+        <v>0.08836906571550211</v>
+      </c>
+      <c r="K90">
+        <v>-0.008082819153314831</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>-0.02862511020434295</v>
+        <v>0.05297507297151261</v>
       </c>
       <c r="C91">
-        <v>-0.08481512144027321</v>
+        <v>0.08352168088553402</v>
       </c>
       <c r="D91">
-        <v>0.05674142423078071</v>
+        <v>0.04782494787751902</v>
       </c>
       <c r="E91">
-        <v>0.06441869393300366</v>
+        <v>0.03896080253378322</v>
       </c>
       <c r="F91">
-        <v>-0.08406091293282222</v>
+        <v>-0.05638485371053716</v>
       </c>
       <c r="G91">
-        <v>-0.05782564732458401</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.08030064361633081</v>
+      </c>
+      <c r="H91">
+        <v>0.03620955027953959</v>
+      </c>
+      <c r="I91">
+        <v>0.006458175628175892</v>
+      </c>
+      <c r="J91">
+        <v>-0.000368585799871587</v>
+      </c>
+      <c r="K91">
+        <v>0.05935263335271392</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>-0.3841396887787855</v>
+        <v>0.3537510024625651</v>
       </c>
       <c r="C92">
-        <v>0.06702620742635099</v>
+        <v>-0.1192595254291181</v>
       </c>
       <c r="D92">
-        <v>-0.01157040208033368</v>
+        <v>-0.05336710363333855</v>
       </c>
       <c r="E92">
-        <v>0.03658236182665597</v>
+        <v>-0.04198385952787985</v>
       </c>
       <c r="F92">
-        <v>0.1020434469108876</v>
+        <v>0.04838950484993783</v>
       </c>
       <c r="G92">
-        <v>-0.02497774937031367</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.01665385214354499</v>
+      </c>
+      <c r="H92">
+        <v>-0.06484012271500428</v>
+      </c>
+      <c r="I92">
+        <v>-0.036626566371779</v>
+      </c>
+      <c r="J92">
+        <v>0.1444736858391179</v>
+      </c>
+      <c r="K92">
+        <v>0.007057872915898153</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>-0.3040509182272038</v>
+        <v>0.311349963560206</v>
       </c>
       <c r="C93">
-        <v>0.07416320375428949</v>
+        <v>-0.1127241720613841</v>
       </c>
       <c r="D93">
-        <v>0.009938791753520849</v>
+        <v>-0.008824886665810527</v>
       </c>
       <c r="E93">
-        <v>-0.06005017227405895</v>
+        <v>-0.004222505689156979</v>
       </c>
       <c r="F93">
-        <v>0.03039790057963274</v>
+        <v>0.03589719066467443</v>
       </c>
       <c r="G93">
-        <v>-0.02032765504438547</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.0426511631901519</v>
+      </c>
+      <c r="H93">
+        <v>-0.03006456728243063</v>
+      </c>
+      <c r="I93">
+        <v>-0.05010881181968932</v>
+      </c>
+      <c r="J93">
+        <v>0.09232080004262219</v>
+      </c>
+      <c r="K93">
+        <v>-0.01807102428560199</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>-0.04582079425579324</v>
+        <v>0.07825977562640922</v>
       </c>
       <c r="C94">
-        <v>-0.2006177861590357</v>
+        <v>0.160179537862469</v>
       </c>
       <c r="D94">
-        <v>0.1423082731021764</v>
+        <v>0.1038520725512112</v>
       </c>
       <c r="E94">
-        <v>0.2350420231295954</v>
+        <v>0.02604661376252887</v>
       </c>
       <c r="F94">
-        <v>-0.2103264254042168</v>
+        <v>-0.1536809190340422</v>
       </c>
       <c r="G94">
-        <v>-0.5282188985173465</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.5244390675115811</v>
+      </c>
+      <c r="H94">
+        <v>0.2248679480010443</v>
+      </c>
+      <c r="I94">
+        <v>-0.08785595902438499</v>
+      </c>
+      <c r="J94">
+        <v>-0.1381225403759488</v>
+      </c>
+      <c r="K94">
+        <v>0.2373396391680024</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>-0.02949325143643008</v>
+        <v>0.03897448304076362</v>
       </c>
       <c r="C95">
-        <v>-0.09255921876941947</v>
+        <v>0.1275001607398574</v>
       </c>
       <c r="D95">
-        <v>0.03920105670193631</v>
+        <v>0.061450398412239</v>
       </c>
       <c r="E95">
-        <v>0.03691913372236341</v>
+        <v>-0.01833542403098295</v>
       </c>
       <c r="F95">
-        <v>-0.08346817168305583</v>
+        <v>-0.0766400822241613</v>
       </c>
       <c r="G95">
-        <v>0.1076971320877327</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.04534593535084118</v>
+      </c>
+      <c r="H95">
+        <v>-0.07487506637515304</v>
+      </c>
+      <c r="I95">
+        <v>0.1168313381603541</v>
+      </c>
+      <c r="J95">
+        <v>-0.148399271205106</v>
+      </c>
+      <c r="K95">
+        <v>0.2670008862955035</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,79 +4060,127 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>0.0006162303149408733</v>
+        <v>0.0135402248873673</v>
       </c>
       <c r="C97">
-        <v>-0.0007526966345366096</v>
+        <v>0.01753945530046764</v>
       </c>
       <c r="D97">
-        <v>0.002038056206821911</v>
+        <v>-0.00831239186972625</v>
       </c>
       <c r="E97">
-        <v>0.0009657832384286074</v>
+        <v>-0.02872553870207001</v>
       </c>
       <c r="F97">
-        <v>0.00356211927244907</v>
+        <v>0.007136821572813635</v>
       </c>
       <c r="G97">
-        <v>0.002071372866698036</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>-0.02366500507916101</v>
+      </c>
+      <c r="H97">
+        <v>-0.04657738857380367</v>
+      </c>
+      <c r="I97">
+        <v>-0.1359209053962194</v>
+      </c>
+      <c r="J97">
+        <v>-0.0687742311476033</v>
+      </c>
+      <c r="K97">
+        <v>0.01216881044694993</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>-0.08139398652467224</v>
+        <v>0.1309767393692243</v>
       </c>
       <c r="C98">
-        <v>-0.1510861933471976</v>
+        <v>0.1593455663257784</v>
       </c>
       <c r="D98">
-        <v>0.1222550373943102</v>
+        <v>0.092381789702201</v>
       </c>
       <c r="E98">
-        <v>0.07519865933451148</v>
+        <v>0.02654473321431753</v>
       </c>
       <c r="F98">
-        <v>-0.08099782827486272</v>
+        <v>-0.2206221211892661</v>
       </c>
       <c r="G98">
-        <v>0.277600222240291</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.3275985865738318</v>
+      </c>
+      <c r="H98">
+        <v>0.3216905243760927</v>
+      </c>
+      <c r="I98">
+        <v>-0.10595039769259</v>
+      </c>
+      <c r="J98">
+        <v>0.07381842660926061</v>
+      </c>
+      <c r="K98">
+        <v>-0.08407238544768453</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.01409500845855541</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>0.04675775428391269</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>-0.00442277577034238</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>-0.01119280700231064</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>-0.06305247166128534</v>
       </c>
       <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>0.05861002521835162</v>
+      </c>
+      <c r="H99">
+        <v>-0.1354327347663565</v>
+      </c>
+      <c r="I99">
+        <v>-0.8683511382046819</v>
+      </c>
+      <c r="J99">
+        <v>-0.2627584327888217</v>
+      </c>
+      <c r="K99">
+        <v>-0.01591235434751593</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,56 +4200,92 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>-0.00624552267855838</v>
+        <v>0.01491480430703569</v>
       </c>
       <c r="C101">
-        <v>-0.07431044691771155</v>
+        <v>0.08144081357602831</v>
       </c>
       <c r="D101">
-        <v>0.04564893105127346</v>
+        <v>0.05324342105604254</v>
       </c>
       <c r="E101">
-        <v>-0.02993815624364269</v>
+        <v>0.05088440797251989</v>
       </c>
       <c r="F101">
-        <v>-0.00278208499038565</v>
+        <v>0.002656874101112306</v>
       </c>
       <c r="G101">
-        <v>0.104456209743638</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.1179906223978275</v>
+      </c>
+      <c r="H101">
+        <v>-0.2922499114883638</v>
+      </c>
+      <c r="I101">
+        <v>0.0002985517536898224</v>
+      </c>
+      <c r="J101">
+        <v>-0.003393384101439315</v>
+      </c>
+      <c r="K101">
+        <v>0.1799333377466515</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>-0.007051334629458968</v>
+        <v>0.002813819696393852</v>
       </c>
       <c r="C102">
-        <v>-0.02467181134759757</v>
+        <v>0.009436332333372592</v>
       </c>
       <c r="D102">
-        <v>0.002846582360946363</v>
+        <v>-0.0006950564488928782</v>
       </c>
       <c r="E102">
-        <v>0.02135076927540452</v>
+        <v>0.004375850058708101</v>
       </c>
       <c r="F102">
-        <v>-0.02663035371362745</v>
+        <v>-0.007461665819018498</v>
       </c>
       <c r="G102">
-        <v>0.008954656747953404</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.000534892980039393</v>
+      </c>
+      <c r="H102">
+        <v>0.0001572056854985494</v>
+      </c>
+      <c r="I102">
+        <v>-0.0004588290438691708</v>
+      </c>
+      <c r="J102">
+        <v>-0.01351419095116576</v>
+      </c>
+      <c r="K102">
+        <v>-0.00657345925304682</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
